--- a/results/mp/logistic/corona/confidence/168/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,19 +55,28 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>support</t>
@@ -76,70 +85,76 @@
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
   <si>
     <t>.</t>
@@ -503,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7363013698630136</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4126984126984127</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3527131782945737</v>
+        <v>0.374031007751938</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,31 +705,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L5">
+        <v>96</v>
+      </c>
+      <c r="M5">
+        <v>96</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>16</v>
-      </c>
-      <c r="K5">
-        <v>0.9083333333333333</v>
-      </c>
-      <c r="L5">
-        <v>109</v>
-      </c>
-      <c r="M5">
-        <v>109</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,38 +737,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.261744966442953</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>115</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>0.8478260869565217</v>
+      </c>
+      <c r="L6">
         <v>39</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>39</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>110</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L6">
-        <v>96</v>
-      </c>
-      <c r="M6">
-        <v>96</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -764,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1444444444444444</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8490566037735849</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,21 +829,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.0992063492063492</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>227</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -840,21 +879,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8085106382978723</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -866,21 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -892,21 +931,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7948717948717948</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -918,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -944,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.75625</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -970,21 +1009,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -996,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1022,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1048,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7413793103448276</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1074,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1100,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1126,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.66</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1152,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6352941176470588</v>
+        <v>0.66</v>
       </c>
       <c r="L21">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1178,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6046511627906976</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1204,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5957446808510638</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1230,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5774058577405857</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1256,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5457627118644067</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L25">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="M25">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1287,16 +1326,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5285714285714286</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1308,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5076923076923077</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1334,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4719101123595505</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1360,111 +1399,215 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.01050656660412758</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="N29">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>2637</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.006032482598607889</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M30">
+        <v>45</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>44</v>
-      </c>
-      <c r="N30">
-        <v>0.59</v>
-      </c>
-      <c r="O30">
-        <v>0.41</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>4284</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.005818619582664527</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N31">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>4955</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.00544006217213911</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.03258145363408521</v>
+      </c>
+      <c r="L33">
+        <v>39</v>
+      </c>
+      <c r="M33">
+        <v>42</v>
+      </c>
+      <c r="N33">
+        <v>0.93</v>
+      </c>
+      <c r="O33">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N32">
-        <v>0.61</v>
-      </c>
-      <c r="O32">
-        <v>0.39</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>5119</v>
+      <c r="K34">
+        <v>0.009377344336084021</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>0.78</v>
+      </c>
+      <c r="O34">
+        <v>0.22</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.007435691318327975</v>
+      </c>
+      <c r="L35">
+        <v>37</v>
+      </c>
+      <c r="M35">
+        <v>57</v>
+      </c>
+      <c r="N35">
+        <v>0.65</v>
+      </c>
+      <c r="O35">
+        <v>0.35</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.0058331713007972</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>52</v>
+      </c>
+      <c r="N36">
+        <v>0.58</v>
+      </c>
+      <c r="O36">
+        <v>0.42</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>5113</v>
       </c>
     </row>
   </sheetData>
